--- a/2025-10-13/13_ai.full_fixtures.xlsx
+++ b/2025-10-13/13_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cape Verde - Eswatini: 17:00</t>
+          <t>Cape Verde ✓ - Eswatini: 3:0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -507,9 +507,13 @@
           <t>72%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -523,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Iceland - France: 19:45</t>
+          <t>Iceland - France : 2:2</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -544,10 +548,10 @@
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cameroon - Angola: 17:00</t>
+          <t>Cameroon  - Angola: 0:0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -579,10 +583,10 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>North Macedonia - Kazakhstan: 19:45</t>
+          <t>North Macedonia  - Kazakhstan: 1:1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -614,10 +618,10 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -628,7 +632,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sweden - Kosovo: 19:45</t>
+          <t>Sweden X - Kosovo: 0:1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -647,12 +651,16 @@
           <t>71%</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H6" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -663,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Strongest La Paz - Club Jorge Wilstermann: 1:1</t>
+          <t>The Strongest La Paz  - Club Jorge Wilstermann: 1:1</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -698,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tunisia - Namibia: 14:00</t>
+          <t>Tunisia ✓ - Namibia: 3:0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -717,9 +725,13 @@
           <t>56%</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -733,28 +745,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Club Universidad de Chile - CD Palestino: 20:00</t>
+          <t>Ukraine ✓ - Azerbaijan: 2:1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Club Universidad de Chile</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -768,7 +784,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Alga Bishkek - FK Dordoi Bishkek: 14:00</t>
+          <t>Alga Bishkek - FK Dordoi Bishkek : 1:1</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -789,10 +805,10 @@
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -803,31 +819,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ukraine - Azerbaijan: 19:45</t>
+          <t>Saipa FC  - Naft va Gaz Gachsaran: 0:0</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Saipa FC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>1.5</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -838,31 +854,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Saipa FC - Naft va Gaz Gachsaran: 13:00</t>
+          <t>Club Universidad de Chile ✓ - CD Palestino: 2:1</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.55</v>
+        <v>2.15</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Saipa FC</t>
+          <t>Club Universidad de Chile</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>51%</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -873,7 +893,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hearts of Oak - Heart of Lions FC: 17:00</t>
+          <t>Hearts of Oak  - Heart of Lions FC: 0:0</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -894,10 +914,10 @@
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -908,7 +928,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Boyacá Patriotas FC - CD Atlético Huila: 21:00</t>
+          <t>Boyacá Patriotas FC ✓ - CD Atlético Huila: 1:0</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -927,12 +947,16 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H14" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -943,7 +967,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Atlético Bucaramanga - Unión Magdalena: 1:0</t>
+          <t>Atlético Bucaramanga ✓ - Unión Magdalena: 1:0</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -962,7 +986,11 @@
           <t>45%</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
@@ -978,15 +1006,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Metalist Kharkiv - Nyva Ternopil: 13:15</t>
+          <t>FC Chernigiv ✓ - UCSA Tarasivka: 2:0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.03</v>
+        <v>1.4</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Metalist Kharkiv</t>
+          <t>FC Chernigiv</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -994,15 +1022,19 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1013,28 +1045,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Slovakia - Luxembourg: 19:45</t>
+          <t>Metalist Kharkiv X - Nyva Ternopil: 1:2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.28</v>
+        <v>1.03</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Metalist Kharkiv</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1048,15 +1084,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Montenegro - Liechtenstein: 17:00</t>
+          <t>Slovakia ✓ - Luxembourg: 2:0</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.72</v>
+        <v>0.28</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1064,12 +1100,16 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>39%</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1083,28 +1123,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Slovenia - Switzerland: 19:45</t>
+          <t>Montenegro ✓ - Liechtenstein: 2:1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.88</v>
+        <v>0.72</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>37%</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H19" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -1118,31 +1162,31 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Equatorial Guinea - Liberia: 14:00</t>
+          <t>Slovenia - Switzerland : 0:0</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.92</v>
+        <v>1.88</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1153,31 +1197,31 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Austin FC - Los Angeles FC: 1:0</t>
+          <t>Equatorial Guinea  - Liberia: 1:1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.96</v>
+        <v>0.92</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1188,15 +1232,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cusco FC - Comerciantes Unidos: 1:1</t>
+          <t>Austin FC - Los Angeles FC X: 1:0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cusco FC</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1204,12 +1248,16 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>29%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -1223,31 +1271,31 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Prykarpattya-Blago Ivano-Frankivsk - Chornomorets Odesa: 11:30</t>
+          <t>Cusco FC  - Comerciantes Unidos: 1:1</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.44</v>
+        <v>1.92</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Chornomorets Odesa</t>
+          <t>Cusco FC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1258,15 +1306,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>San Francisco FC - SD Atlético Nacional: 2:2</t>
+          <t>Prykarpattya-Blago Ivano-Frankivsk - Chornomorets Odesa : 1:1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.21</v>
+        <v>2.44</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>San Francisco FC</t>
+          <t>Chornomorets Odesa</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1274,15 +1322,15 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>28%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1293,19 +1341,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FK Alay Osh - FC OshMU: 14:00</t>
+          <t>San Francisco FC  - SD Atlético Nacional: 2:2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.34</v>
+        <v>2.21</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FK Alay Osh</t>
+          <t>San Francisco FC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1314,7 +1362,7 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -1328,28 +1376,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Northern Ireland - Germany: 19:45</t>
+          <t>FK Alay Osh  - FC OshMU: 14:00</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.11</v>
+        <v>1.34</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>FK Alay Osh</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -1363,15 +1411,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Wales - Belgium: 19:45</t>
+          <t>Northern Ireland - Germany ✓: 0:1</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1379,15 +1427,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H27" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1398,28 +1450,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Navad Urmia FC - FC Nassaji Mazandaran: 15:45</t>
+          <t>Wales - Belgium ✓: 2:4</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.61</v>
+        <v>2.22</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Nassaji Mazandaran</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>23%</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1433,31 +1489,31 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Once Caldas - Independiente Medellín: 23:15</t>
+          <t>Navad Urmia FC - FC Nassaji Mazandaran : 0:0</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.32</v>
+        <v>0.61</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>FC Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>21%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1468,15 +1524,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rionegro Águilas - Asociación Deportivo Pasto: 2:2</t>
+          <t>Once Caldas X - Independiente Medellín: 1:5</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rionegro Águilas</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1484,12 +1540,16 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1503,15 +1563,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Rivers United FC - Bayelsa United: 1:2</t>
+          <t>Uzbekistan X - Uruguay: 1:2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rivers United FC</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1522,7 +1582,11 @@
           <t>19%</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H31" t="n">
         <v>3</v>
       </c>
@@ -1538,19 +1602,19 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mauritius - Libya: 17:00</t>
+          <t>Rionegro Águilas  - Asociación Deportivo Pasto: 2:2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.83</v>
+        <v>1.23</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Rionegro Águilas</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1559,7 +1623,7 @@
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -1573,15 +1637,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Uzbekistan - Uruguay: 13:45</t>
+          <t>Rivers United FC X - Bayelsa United: 1:2</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.03</v>
+        <v>0.41</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Rivers United FC</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1589,12 +1653,16 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H33" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -1608,31 +1676,31 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mes Kerman - Ario Eslamshahr: 14:00</t>
+          <t>Mauritius - Libya : 0:0</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mes Kerman</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1643,19 +1711,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cuiabá Esporte Clube (MT) - Coritiba Foot Ball Club: 1:0</t>
+          <t>Mes Kerman  - Ario Eslamshahr: 0:0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cuiabá Esporte Clube (MT)</t>
+          <t>Mes Kerman</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1664,7 +1732,7 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -1678,31 +1746,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CA Independiente - CA Lanús: 0:2</t>
+          <t>Cuiabá Esporte Clube (MT) ✓ - Coritiba Foot Ball Club: 1:0</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.8</v>
+        <v>1.29</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Cuiabá Esporte Clube (MT)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>18%</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1713,15 +1785,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Livyi Bereg Kyiv - Vorskla Poltava: 15:00</t>
+          <t>CA Independiente X - CA Lanús: 0:2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.48</v>
+        <v>0.8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Livyi Bereg Kyiv</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1732,9 +1804,13 @@
           <t>18%</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H37" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -1748,15 +1824,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Club Atlético Platense - Club Deportivo Riestra: 22:30</t>
+          <t>Livyi Bereg Kyiv ✓ - Vorskla Poltava: 2:0</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.76</v>
+        <v>0.48</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Club Atlético Platense</t>
+          <t>Livyi Bereg Kyiv</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1764,12 +1840,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H38" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -1783,15 +1863,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sanat Naft FC - Havadar SC: 16:30</t>
+          <t>Club Atlético Platense  - Club Deportivo Riestra: 1:1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sanat Naft FC</t>
+          <t>Club Atlético Platense</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1799,12 +1879,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1818,31 +1898,35 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Club Nacional Asunción - Sportivo Luqueño: 1:1</t>
+          <t>Sanat Naft FC ✓ - Havadar SC: 3:1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.06</v>
+        <v>0.59</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Club Nacional Asunción</t>
+          <t>Sanat Naft FC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>15%</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1853,19 +1937,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Volta Redonda Futebol Clube (RJ) - Atlético Clube Goianiense: 23:00</t>
+          <t>Club Nacional Asunción  - Sportivo Luqueño: 1:1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Atlético Clube Goianiense</t>
+          <t>Club Nacional Asunción</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1874,10 +1958,10 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1888,28 +1972,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cork City FC - Shelbourne FC: 19:45</t>
+          <t>Volta Redonda Futebol Clube (RJ) - Atlético Clube Goianiense X: 3:0</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.82</v>
+        <v>0.86</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shelbourne FC</t>
+          <t>Atlético Clube Goianiense</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>14%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
+          <t>15%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H42" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -1923,28 +2011,32 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Beasat Kermanshah - Damash Gilan FC: 13:45</t>
+          <t>Cork City FC - Shelbourne FC ✓: 1:2</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.85</v>
+        <v>1.82</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Beasat Kermanshah</t>
+          <t>Shelbourne FC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>14%</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H43" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -1958,15 +2050,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>South Sudan - Togo: 13:00</t>
+          <t>Beasat Kermanshah  - Damash Gilan FC: 0:0</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Beasat Kermanshah</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1974,15 +2066,15 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>13%</t>
+          <t>14%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1993,19 +2085,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Atlético FC - Club Boca Juniors de Cali: 21:00</t>
+          <t>South Sudan - Togo : 0:0</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Atlético FC</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2014,10 +2106,10 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2028,31 +2120,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>UMECIT FC - Sporting San Miguelito: 00:15</t>
+          <t>Atlético FC X - Club Boca Juniors de Cali: 0:1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sporting San Miguelito</t>
+          <t>Atlético FC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>13%</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2063,19 +2159,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Deportivo Marquense - Aurora FC: 01:00</t>
+          <t>UMECIT FC - Sporting San Miguelito : 00:15</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.53</v>
+        <v>0.98</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Deportivo Marquense</t>
+          <t>Sporting San Miguelito</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2084,10 +2180,10 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2098,31 +2194,31 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Orsomarso SC - Internacional de Palmira: 23:15</t>
+          <t>Deportivo Marquense  - Aurora FC: 01:00</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.83</v>
+        <v>1.53</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Orsomarso SC</t>
+          <t>Deportivo Marquense</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>13%</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2133,19 +2229,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Córdoba CF - Cultural Leonesa: 19:30</t>
+          <t>Orsomarso SC  - Internacional de Palmira: 0:0</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.17</v>
+        <v>0.83</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Córdoba CF</t>
+          <t>Orsomarso SC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2154,10 +2250,10 @@
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2168,31 +2264,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FK Dubocica Leskovac - FK Macva Sabac: 17:00</t>
+          <t>Córdoba CF ✓ - Cultural Leonesa: 1:0</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.07</v>
+        <v>2.17</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FK Dubocica Leskovac</t>
+          <t>Córdoba CF</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H50" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2203,28 +2303,28 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Club Deportivo Morón - Club Atlético San Martín (Tucumán): 0:0</t>
+          <t>FK Dubocica Leskovac  - FK Macva Sabac: 1:1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.57</v>
+        <v>1.07</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Club Deportivo Morón</t>
+          <t>FK Dubocica Leskovac</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="b">
         <v>1</v>
@@ -2238,19 +2338,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Club Juan Pablo II College - Deportivo Garcilaso: 21:15</t>
+          <t>Club Deportivo Morón  - Club Atlético San Martín (Tucumán): 0:0</t>
         </is>
       </c>
       <c r="C52" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Club Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
         <v>1.5</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Club Juan Pablo II College</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>2.5</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2259,10 +2359,10 @@
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2273,31 +2373,35 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Shahrdari Nowshahr - Mes Shahr Babak FC: 12:30</t>
+          <t>Club Juan Pablo II College X - Deportivo Garcilaso: 0:1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Shahrdari Nowshahr</t>
+          <t>Club Juan Pablo II College</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>8%</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H53" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="I53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2308,31 +2412,35 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>San Juan FC - EF Taurinos de Cayey: 2:2</t>
+          <t>Shahrdari Nowshahr X - Mes Shahr Babak FC: 0:2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.43</v>
+        <v>0.86</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>EF Taurinos de Cayey</t>
+          <t>Shahrdari Nowshahr</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>7%</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr"/>
+          <t>8%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2343,19 +2451,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Finn Harps - Kerry Football Club: 19:45</t>
+          <t>San Juan FC - EF Taurinos de Cayey : 2:2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.86</v>
+        <v>3.43</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Finn Harps</t>
+          <t>EF Taurinos de Cayey</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2364,10 +2472,10 @@
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2378,15 +2486,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tensung FC - Tsirang FC: 11:00</t>
+          <t>Finn Harps  - Kerry Football Club: 1:1</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.14</v>
+        <v>1.86</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Tensung FC</t>
+          <t>Finn Harps</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2394,15 +2502,15 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>7%</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2413,28 +2521,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Universidad Técnica de Cajamarca - Club Cienciano: 19:00</t>
+          <t>Tensung FC ✓ - Tsirang FC: 3:0</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.12</v>
+        <v>1.14</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Universidad Técnica de Cajamarca</t>
+          <t>Tensung FC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>4%</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H57" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2448,31 +2560,35 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>São Tomé and Príncipe - Malawi: 14:00</t>
+          <t>Universidad Técnica de Cajamarca X - Club Cienciano: 0:2</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.09</v>
+        <v>2.12</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Universidad Técnica de Cajamarca</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H58" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2483,31 +2599,35 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>San Antonio FC - Guayaquil City FC: 23:00</t>
+          <t>São Tomé and Príncipe - Malawi X: 1:0</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.67</v>
+        <v>1.09</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>San Antonio FC</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>3%</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H59" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2518,15 +2638,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lesotho - Zimbabwe: 17:00</t>
+          <t>San Antonio FC  - Guayaquil City FC: 23:00</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Zimbabwe</t>
+          <t>San Antonio FC</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2539,7 +2659,7 @@
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
@@ -2553,30 +2673,73 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FK Internacional - Kom Podgorica: 14:00</t>
+          <t>Lesotho - Zimbabwe X: 1:0</t>
         </is>
       </c>
       <c r="C61" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Mon Oct 13</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FK Internacional - Kom Podgorica ✓: 0:5</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
         <v>1.56</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>Kom Podgorica</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="E62" t="n">
         <v>2.5</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="n">
-        <v>14</v>
-      </c>
-      <c r="I61" t="b">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+      <c r="I62" t="b">
         <v>0</v>
       </c>
     </row>
